--- a/Technology/Software/Monday.com.xlsx
+++ b/Technology/Software/Monday.com.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A26149-EA05-A44D-8DCB-1BCA81338F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00F3CB1-62F5-9A48-82BD-389428C375FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1371,7 +1371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1608,9 +1608,6 @@
     <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="10" fontId="12" fillId="12" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1659,8 +1656,11 @@
     <xf numFmtId="10" fontId="20" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1693,7 +1693,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1731,6 +1737,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1748,7 +1755,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5080000000000002E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1760,6 +1767,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1886,11 +1894,11 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>189.15</v>
-    <v>73.58</v>
-    <v>-5.44</v>
-    <v>-3.8584E-2</v>
-    <v>1.45</v>
-    <v>1.0697000000000002E-2</v>
+    <v>94.76</v>
+    <v>-3.47</v>
+    <v>-1.9295E-2</v>
+    <v>3.37</v>
+    <v>1.9108E-2</v>
     <v>USD</v>
     <v>Monday.Com Ltd is an Israel-based software publisher. The Company provides operational system monday.com Work OS which is an open platform that democratizes the power of software so organizations can easily build software applications and work management tools to fit their every need. The platform intuitively connects people to processes and systems, empowering teams to excel in every aspect of their work. monday.com has teams in Tel Aviv, New York, San Francisco, Miami, Chicago, London, Kiev, and Sydney. The Company customize its platform to suit any business vertical and serves customers worldwide.</v>
     <v>1549</v>
@@ -1898,24 +1906,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>6 Yitzhak Sadeh Street, TEL AVIV-YAFO, 677750 IL</v>
-    <v>144.97</v>
+    <v>179.48</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45240.03145805547</v>
+    <v>45262.025273414059</v>
     <v>0</v>
-    <v>135.44999999999999</v>
-    <v>6544015125</v>
+    <v>174</v>
+    <v>8514702000</v>
     <v>MONDAY.COM LTD</v>
     <v>MONDAY.COM LTD</v>
-    <v>144.55000000000001</v>
-    <v>140.99</v>
-    <v>135.55000000000001</v>
-    <v>137</v>
+    <v>176.8</v>
+    <v>179.84</v>
+    <v>176.37</v>
+    <v>179.74</v>
     <v>48277500</v>
     <v>MNDY</v>
     <v>MONDAY.COM LTD (XNAS:MNDY)</v>
-    <v>653774</v>
-    <v>762462</v>
+    <v>1183834</v>
+    <v>1111109</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2074,9 +2082,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2513,9 +2521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J196"/>
   <sheetViews>
-    <sheetView topLeftCell="A164" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A190" sqref="A190:XFD190"/>
+      <selection pane="topRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8747,10 +8755,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89D97FA-5184-2949-A911-25C307FED7F6}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8758,7 +8766,7 @@
     <col min="1" max="19" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="117" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="117" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="116" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -8778,7 +8786,7 @@
       <c r="O1" s="116"/>
       <c r="P1" s="116"/>
     </row>
-    <row r="2" spans="1:16" s="117" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="117" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="116"/>
       <c r="B2" s="116"/>
       <c r="C2" s="116"/>
@@ -8796,10 +8804,10 @@
       <c r="O2" s="116"/>
       <c r="P2" s="116"/>
     </row>
-    <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>6544015125</v>
+        <v>8514702000</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>192</v>
@@ -8819,15 +8827,15 @@
         <v>194</v>
       </c>
       <c r="G3" s="41">
-        <f>AVERAGE(Financials!B129:F129)</f>
-        <v>5.6836331903720061E-2</v>
+        <f>AVERAGE(Financials!E129:J129)</f>
+        <v>1.234623190732694E-2</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>195</v>
       </c>
       <c r="I3" s="42">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>7684450749.8045864</v>
+        <v>7576526271.2338247</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>196</v>
@@ -8845,8 +8853,10 @@
       </c>
       <c r="O3" s="119"/>
       <c r="P3" s="46"/>
-    </row>
-    <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+    </row>
+    <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="47">
         <f>Financials!F56-Financials!F96-Financials!F105</f>
         <v>920029000</v>
@@ -8870,21 +8880,21 @@
       </c>
       <c r="G4" s="51">
         <f>A5*(1+(5*G3))</f>
-        <v>61997080.067409232</v>
+        <v>51257726.054529883</v>
       </c>
       <c r="H4" s="50" t="s">
         <v>202</v>
       </c>
       <c r="I4" s="52">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>5811519951.7804317</v>
+        <v>5718019263.0528975</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>203</v>
       </c>
       <c r="K4" s="53" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-3.8584E-2</v>
+        <v>-1.9295E-2</v>
       </c>
       <c r="L4" s="54" t="s">
         <v>204</v>
@@ -8895,8 +8905,10 @@
       </c>
       <c r="O4" s="121"/>
       <c r="P4" s="46"/>
-    </row>
-    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+    </row>
+    <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="47" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>48277500</v>
@@ -8927,14 +8939,14 @@
       </c>
       <c r="I5" s="52">
         <f>I4+G5-G6</f>
-        <v>6731548951.7804317</v>
+        <v>6638048263.0528975</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>210</v>
       </c>
       <c r="K5" s="56" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>135.55000000000001</v>
+        <v>176.37</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>211</v>
@@ -8948,11 +8960,13 @@
         <v>0</v>
       </c>
       <c r="P5" s="46"/>
-    </row>
-    <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+    </row>
+    <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="60">
         <f>O20/F10</f>
-        <v>9.13968592877095</v>
+        <v>11.89204189944134</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>213</v>
@@ -8980,14 +8994,14 @@
       </c>
       <c r="I6" s="53">
         <f>N25</f>
-        <v>9.5828093994075075E-2</v>
+        <v>9.6837010856344038E-2</v>
       </c>
       <c r="J6" s="50" t="s">
         <v>216</v>
       </c>
       <c r="K6" s="61">
         <f>I5/G4</f>
-        <v>108.57848376828778</v>
+        <v>129.50337000886645</v>
       </c>
       <c r="L6" s="62" t="s">
         <v>217</v>
@@ -9001,18 +9015,20 @@
         <v>18952000</v>
       </c>
       <c r="P6" s="46"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+    </row>
+    <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="63">
         <f>O20/F12</f>
-        <v>136.33364843749999</v>
+        <v>177.389625</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>219</v>
       </c>
       <c r="C7" s="65">
         <f>F15/A3</f>
-        <v>1.6809252102698954E-2</v>
+        <v>1.2918831451764255E-2</v>
       </c>
       <c r="D7" s="64" t="s">
         <v>220</v>
@@ -9039,7 +9055,7 @@
       </c>
       <c r="K7" s="71">
         <f>K6/K5-1</f>
-        <v>-0.19897835656003116</v>
+        <v>-0.26572903549999172</v>
       </c>
       <c r="L7" s="72" t="s">
         <v>223</v>
@@ -9053,8 +9069,10 @@
         <v>50396000</v>
       </c>
       <c r="P7" s="46"/>
-    </row>
-    <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+    </row>
+    <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="73"/>
       <c r="B8" s="46"/>
       <c r="C8" s="46"/>
@@ -9076,8 +9094,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="46"/>
-    </row>
-    <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+    </row>
+    <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="77"/>
       <c r="B9" s="78">
         <v>2019</v>
@@ -9117,8 +9137,10 @@
         <v>8566000</v>
       </c>
       <c r="P9" s="46"/>
-    </row>
-    <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+    </row>
+    <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="83" t="s">
         <v>226</v>
       </c>
@@ -9161,8 +9183,10 @@
         <v>-37654000</v>
       </c>
       <c r="P10" s="46"/>
-    </row>
-    <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+    </row>
+    <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="87"/>
       <c r="B11" s="88"/>
       <c r="C11" s="88">
@@ -9211,8 +9235,10 @@
         <v>-0.22749243108301906</v>
       </c>
       <c r="P11" s="46"/>
-    </row>
-    <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+    </row>
+    <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="83" t="s">
         <v>133</v>
       </c>
@@ -9256,8 +9282,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="46"/>
-    </row>
-    <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+    </row>
+    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="87"/>
       <c r="B13" s="88"/>
       <c r="C13" s="88">
@@ -9293,8 +9321,8 @@
         <v>0.74285714285714288</v>
       </c>
       <c r="K13" s="90">
-        <f>AVERAGE(G13:J13)</f>
-        <v>0.94089905192846379</v>
+        <f>AVERAGE(F13:J13)</f>
+        <v>0.48257815567108542</v>
       </c>
       <c r="L13" s="74"/>
       <c r="M13" s="74"/>
@@ -9303,48 +9331,50 @@
       </c>
       <c r="O13" s="121"/>
       <c r="P13" s="46"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="94" t="s">
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+    </row>
+    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="110" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="95">
+      <c r="B14" s="94">
         <f>B12/B10</f>
         <v>-1.1731613927697884</v>
       </c>
-      <c r="C14" s="95">
+      <c r="C14" s="94">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
         <v>-0.94463856805049562</v>
       </c>
-      <c r="D14" s="95">
+      <c r="D14" s="94">
         <f t="shared" si="2"/>
         <v>-0.4195813727080967</v>
       </c>
-      <c r="E14" s="95">
+      <c r="E14" s="94">
         <f t="shared" si="2"/>
         <v>-0.26369817486113495</v>
       </c>
-      <c r="F14" s="96">
+      <c r="F14" s="95">
         <f t="shared" si="2"/>
         <v>6.7039106145251395E-2</v>
       </c>
-      <c r="G14" s="95">
+      <c r="G14" s="94">
         <f t="shared" si="2"/>
         <v>7.4235807860262015E-2</v>
       </c>
-      <c r="H14" s="95">
+      <c r="H14" s="94">
         <f t="shared" si="2"/>
         <v>0.1119724375538329</v>
       </c>
-      <c r="I14" s="95">
+      <c r="I14" s="94">
         <f t="shared" si="2"/>
         <v>0.21472392638036811</v>
       </c>
-      <c r="J14" s="97">
+      <c r="J14" s="96">
         <f t="shared" si="2"/>
         <v>0.28306264501160094</v>
       </c>
-      <c r="K14" s="97"/>
+      <c r="K14" s="96"/>
       <c r="L14" s="74"/>
       <c r="M14" s="74"/>
       <c r="N14" s="58" t="s">
@@ -9352,11 +9382,13 @@
       </c>
       <c r="O14" s="91">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5080000000000002E-2</v>
+        <v>4.2709999999999998E-2</v>
       </c>
       <c r="P14" s="46"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+    </row>
+    <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="83" t="s">
         <v>176</v>
       </c>
@@ -9395,14 +9427,16 @@
       <c r="N15" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="O15" s="98">
+      <c r="O15" s="97">
         <f>1.33</f>
         <v>1.33</v>
       </c>
       <c r="P15" s="46"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="99"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+    </row>
+    <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="98"/>
       <c r="B16" s="88"/>
       <c r="C16" s="88">
         <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
@@ -9449,81 +9483,85 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="46"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="94" t="s">
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+    </row>
+    <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="110" t="s">
         <v>191</v>
       </c>
-      <c r="B17" s="95">
+      <c r="B17" s="94">
         <f>B15/B10</f>
         <v>-0.48729014329803172</v>
       </c>
-      <c r="C17" s="95">
+      <c r="C17" s="94">
         <f t="shared" ref="C17:J17" si="4">C15/C10</f>
         <v>-0.25779683844019785</v>
       </c>
-      <c r="D17" s="95">
+      <c r="D17" s="94">
         <f t="shared" si="4"/>
         <v>1.550219049164368E-2</v>
       </c>
-      <c r="E17" s="97">
+      <c r="E17" s="96">
         <f t="shared" si="4"/>
         <v>2.1453521864866897E-2</v>
       </c>
-      <c r="F17" s="95">
+      <c r="F17" s="94">
         <f t="shared" si="4"/>
         <v>0.15363128491620112</v>
       </c>
-      <c r="G17" s="95">
+      <c r="G17" s="94">
         <f t="shared" si="4"/>
         <v>0.13864628820960698</v>
       </c>
-      <c r="H17" s="95">
+      <c r="H17" s="94">
         <f t="shared" si="4"/>
         <v>0.16192937123169682</v>
       </c>
-      <c r="I17" s="95">
+      <c r="I17" s="94">
         <f t="shared" si="4"/>
         <v>0.23312883435582821</v>
       </c>
-      <c r="J17" s="97">
+      <c r="J17" s="96">
         <f t="shared" si="4"/>
         <v>0.24640371229698377</v>
       </c>
-      <c r="K17" s="97"/>
+      <c r="K17" s="96"/>
       <c r="L17" s="74"/>
       <c r="M17" s="74"/>
-      <c r="N17" s="100" t="s">
+      <c r="N17" s="99" t="s">
         <v>232</v>
       </c>
-      <c r="O17" s="101">
+      <c r="O17" s="100">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.6843600000000002E-2</v>
+        <v>9.762570000000001E-2</v>
       </c>
       <c r="P17" s="46"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="102" t="s">
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+    </row>
+    <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="101" t="s">
         <v>187</v>
       </c>
-      <c r="B18" s="103">
+      <c r="B18" s="102">
         <v>0.59050524649595348</v>
       </c>
-      <c r="C18" s="103">
+      <c r="C18" s="102">
         <v>0.57470616381526374</v>
       </c>
-      <c r="D18" s="103">
+      <c r="D18" s="102">
         <v>-0.13446563436861655</v>
       </c>
-      <c r="E18" s="103">
+      <c r="E18" s="102">
         <v>-0.15051765041368467</v>
       </c>
-      <c r="F18" s="104"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="106"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="105"/>
       <c r="L18" s="74"/>
       <c r="M18" s="74"/>
       <c r="N18" s="120" t="s">
@@ -9531,8 +9569,10 @@
       </c>
       <c r="O18" s="121"/>
       <c r="P18" s="46"/>
-    </row>
-    <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+    </row>
+    <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="74"/>
       <c r="B19" s="74"/>
       <c r="C19" s="74"/>
@@ -9551,17 +9591,19 @@
       <c r="N19" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="O19" s="107">
+      <c r="O19" s="106">
         <f>O6+O7</f>
         <v>69348000</v>
       </c>
       <c r="P19" s="46"/>
-    </row>
-    <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+    </row>
+    <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
       <c r="F20" s="74"/>
       <c r="G20" s="74"/>
       <c r="H20" s="74"/>
@@ -9573,24 +9615,26 @@
       <c r="N20" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="O20" s="107">
+      <c r="O20" s="106">
         <f>A3</f>
-        <v>6544015125</v>
+        <v>8514702000</v>
       </c>
       <c r="P20" s="46"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="111" t="str" cm="1">
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+    </row>
+    <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="123" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="122" cm="1">
-        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2012</v>
       </c>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="74"/>
       <c r="G21" s="74"/>
       <c r="H21" s="74"/>
@@ -9601,21 +9645,23 @@
       <c r="N21" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="O21" s="107">
+      <c r="O21" s="106">
         <f>O19+O20</f>
-        <v>6613363125</v>
+        <v>8584050000</v>
       </c>
       <c r="P21" s="46"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="111" t="str" cm="1">
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+    </row>
+    <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="122" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Monday.Com Ltd is an Israel-based software publisher. The Company provides operational system monday.com Work OS which is an open platform that democratizes the power of software so organizations can easily build software applications and work management tools to fit their every need. The platform intuitively connects people to processes and systems, empowering teams to excel in every aspect of their work. monday.com has teams in Tel Aviv, New York, San Francisco, Miami, Chicago, London, Kiev, and Sydney. The Company customize its platform to suit any business vertical and serves customers worldwide.</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
       <c r="F22" s="74"/>
       <c r="G22" s="74"/>
       <c r="H22" s="74"/>
@@ -9627,18 +9673,20 @@
       <c r="N22" s="75" t="s">
         <v>241</v>
       </c>
-      <c r="O22" s="109">
+      <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>1.0486041472280414E-2</v>
+        <v>8.0787041082006749E-3</v>
       </c>
       <c r="P22" s="46"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="111"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+    </row>
+    <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="122"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="74"/>
       <c r="G23" s="74"/>
       <c r="H23" s="74"/>
@@ -9647,21 +9695,23 @@
       <c r="K23" s="74"/>
       <c r="L23" s="74"/>
       <c r="M23" s="74"/>
-      <c r="N23" s="100" t="s">
+      <c r="N23" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="O23" s="110">
+      <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.98951395852771962</v>
+        <v>0.99192129589179934</v>
       </c>
       <c r="P23" s="46"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="111"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+    </row>
+    <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="122"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
       <c r="F24" s="74"/>
       <c r="G24" s="74"/>
       <c r="H24" s="74"/>
@@ -9675,13 +9725,15 @@
       </c>
       <c r="O24" s="113"/>
       <c r="P24" s="46"/>
-    </row>
-    <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="111"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+    </row>
+    <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="122"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
       <c r="F25" s="74"/>
       <c r="G25" s="74"/>
       <c r="H25" s="74"/>
@@ -9692,17 +9744,19 @@
       <c r="M25" s="74"/>
       <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.5828093994075075E-2</v>
+        <v>9.6837010856344038E-2</v>
       </c>
       <c r="O25" s="115"/>
       <c r="P25" s="46"/>
-    </row>
-    <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="111"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+    </row>
+    <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="122"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
       <c r="F26" s="74"/>
       <c r="G26" s="74"/>
       <c r="H26" s="74"/>
@@ -9714,13 +9768,15 @@
       <c r="N26" s="74"/>
       <c r="O26" s="46"/>
       <c r="P26" s="46"/>
-    </row>
-    <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="111"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+    </row>
+    <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="122"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
       <c r="F27" s="74"/>
       <c r="G27" s="74"/>
       <c r="H27" s="74"/>
@@ -9732,13 +9788,15 @@
       <c r="N27" s="74"/>
       <c r="O27" s="46"/>
       <c r="P27" s="46"/>
-    </row>
-    <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="111"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+    </row>
+    <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="122"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
       <c r="F28" s="74"/>
       <c r="G28" s="74"/>
       <c r="H28" s="74"/>
@@ -9750,8 +9808,10 @@
       <c r="N28" s="74"/>
       <c r="O28" s="46"/>
       <c r="P28" s="46"/>
-    </row>
-    <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+    </row>
+    <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="111"/>
       <c r="B29" s="111"/>
       <c r="C29" s="111"/>
@@ -9768,8 +9828,10 @@
       <c r="N29" s="74"/>
       <c r="O29" s="46"/>
       <c r="P29" s="46"/>
-    </row>
-    <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+    </row>
+    <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="111"/>
       <c r="B30" s="111"/>
       <c r="C30" s="111"/>
@@ -9786,8 +9848,10 @@
       <c r="N30" s="74"/>
       <c r="O30" s="46"/>
       <c r="P30" s="46"/>
-    </row>
-    <row r="31" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+    </row>
+    <row r="31" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="46"/>
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
@@ -9804,8 +9868,10 @@
       <c r="N31" s="46"/>
       <c r="O31" s="46"/>
       <c r="P31" s="46"/>
-    </row>
-    <row r="32" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+    </row>
+    <row r="32" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="46"/>
       <c r="B32" s="46"/>
       <c r="C32" s="46"/>
@@ -9822,8 +9888,10 @@
       <c r="N32" s="46"/>
       <c r="O32" s="46"/>
       <c r="P32" s="46"/>
-    </row>
-    <row r="33" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+    </row>
+    <row r="33" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="74"/>
       <c r="B33" s="74"/>
       <c r="C33" s="74"/>
@@ -9840,8 +9908,10 @@
       <c r="N33" s="74"/>
       <c r="O33" s="74"/>
       <c r="P33" s="74"/>
-    </row>
-    <row r="34" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q33" s="74"/>
+      <c r="R33" s="74"/>
+    </row>
+    <row r="34" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="74"/>
       <c r="B34" s="74"/>
       <c r="C34" s="74"/>
@@ -9858,8 +9928,10 @@
       <c r="N34" s="74"/>
       <c r="O34" s="74"/>
       <c r="P34" s="74"/>
-    </row>
-    <row r="35" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q34" s="74"/>
+      <c r="R34" s="74"/>
+    </row>
+    <row r="35" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="74"/>
       <c r="B35" s="74"/>
       <c r="C35" s="74"/>
@@ -9876,8 +9948,10 @@
       <c r="N35" s="74"/>
       <c r="O35" s="74"/>
       <c r="P35" s="74"/>
-    </row>
-    <row r="36" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q35" s="74"/>
+      <c r="R35" s="74"/>
+    </row>
+    <row r="36" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="74"/>
       <c r="B36" s="74"/>
       <c r="C36" s="74"/>
@@ -9894,8 +9968,10 @@
       <c r="N36" s="74"/>
       <c r="O36" s="74"/>
       <c r="P36" s="74"/>
-    </row>
-    <row r="37" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q36" s="74"/>
+      <c r="R36" s="74"/>
+    </row>
+    <row r="37" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="74"/>
       <c r="B37" s="74"/>
       <c r="C37" s="74"/>
@@ -9912,8 +9988,10 @@
       <c r="N37" s="74"/>
       <c r="O37" s="74"/>
       <c r="P37" s="74"/>
-    </row>
-    <row r="38" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+    </row>
+    <row r="38" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="74"/>
       <c r="B38" s="74"/>
       <c r="C38" s="74"/>
@@ -9930,8 +10008,10 @@
       <c r="N38" s="74"/>
       <c r="O38" s="74"/>
       <c r="P38" s="74"/>
-    </row>
-    <row r="39" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q38" s="74"/>
+      <c r="R38" s="74"/>
+    </row>
+    <row r="39" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="74"/>
       <c r="B39" s="74"/>
       <c r="C39" s="74"/>
@@ -9948,8 +10028,10 @@
       <c r="N39" s="74"/>
       <c r="O39" s="74"/>
       <c r="P39" s="74"/>
-    </row>
-    <row r="40" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q39" s="74"/>
+      <c r="R39" s="74"/>
+    </row>
+    <row r="40" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="74"/>
       <c r="B40" s="74"/>
       <c r="C40" s="74"/>
@@ -9966,8 +10048,10 @@
       <c r="N40" s="74"/>
       <c r="O40" s="74"/>
       <c r="P40" s="74"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="74"/>
+      <c r="R40" s="74"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="74"/>
       <c r="B41" s="74"/>
       <c r="C41" s="74"/>
@@ -9984,8 +10068,10 @@
       <c r="N41" s="74"/>
       <c r="O41" s="74"/>
       <c r="P41" s="74"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="74"/>
+      <c r="R41" s="74"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="74"/>
       <c r="B42" s="74"/>
       <c r="C42" s="74"/>
@@ -10002,8 +10088,10 @@
       <c r="N42" s="74"/>
       <c r="O42" s="74"/>
       <c r="P42" s="74"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="74"/>
+      <c r="R42" s="74"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="74"/>
       <c r="B43" s="74"/>
       <c r="C43" s="74"/>
@@ -10020,8 +10108,10 @@
       <c r="N43" s="74"/>
       <c r="O43" s="74"/>
       <c r="P43" s="74"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="74"/>
+      <c r="R43" s="74"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="74"/>
       <c r="B44" s="74"/>
       <c r="C44" s="74"/>
@@ -10038,8 +10128,10 @@
       <c r="N44" s="74"/>
       <c r="O44" s="74"/>
       <c r="P44" s="74"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="74"/>
+      <c r="R44" s="74"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="74"/>
       <c r="B45" s="74"/>
       <c r="C45" s="74"/>
@@ -10056,8 +10148,10 @@
       <c r="N45" s="74"/>
       <c r="O45" s="74"/>
       <c r="P45" s="74"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="74"/>
+      <c r="R45" s="74"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="74"/>
       <c r="B46" s="74"/>
       <c r="C46" s="74"/>
@@ -10074,8 +10168,10 @@
       <c r="N46" s="74"/>
       <c r="O46" s="74"/>
       <c r="P46" s="74"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="74"/>
+      <c r="R46" s="74"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="74"/>
       <c r="B47" s="74"/>
       <c r="C47" s="74"/>
@@ -10092,8 +10188,10 @@
       <c r="N47" s="74"/>
       <c r="O47" s="74"/>
       <c r="P47" s="74"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="74"/>
+      <c r="R47" s="74"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="74"/>
       <c r="B48" s="74"/>
       <c r="C48" s="74"/>
@@ -10110,8 +10208,10 @@
       <c r="N48" s="74"/>
       <c r="O48" s="74"/>
       <c r="P48" s="74"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="74"/>
+      <c r="R48" s="74"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="74"/>
       <c r="B49" s="74"/>
       <c r="C49" s="74"/>
@@ -10128,8 +10228,10 @@
       <c r="N49" s="74"/>
       <c r="O49" s="74"/>
       <c r="P49" s="74"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="74"/>
+      <c r="R49" s="74"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="74"/>
       <c r="B50" s="74"/>
       <c r="C50" s="74"/>
@@ -10146,8 +10248,10 @@
       <c r="N50" s="74"/>
       <c r="O50" s="74"/>
       <c r="P50" s="74"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="74"/>
+      <c r="R50" s="74"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="74"/>
       <c r="B51" s="74"/>
       <c r="C51" s="74"/>
@@ -10164,8 +10268,10 @@
       <c r="N51" s="74"/>
       <c r="O51" s="74"/>
       <c r="P51" s="74"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="74"/>
+      <c r="R51" s="74"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="74"/>
       <c r="B52" s="74"/>
       <c r="C52" s="74"/>
@@ -10182,8 +10288,10 @@
       <c r="N52" s="74"/>
       <c r="O52" s="74"/>
       <c r="P52" s="74"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="74"/>
+      <c r="R52" s="74"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="74"/>
       <c r="B53" s="74"/>
       <c r="C53" s="74"/>
@@ -10200,8 +10308,10 @@
       <c r="N53" s="74"/>
       <c r="O53" s="74"/>
       <c r="P53" s="74"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="74"/>
+      <c r="R53" s="74"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="74"/>
       <c r="B54" s="74"/>
       <c r="C54" s="74"/>
@@ -10218,8 +10328,10 @@
       <c r="N54" s="74"/>
       <c r="O54" s="74"/>
       <c r="P54" s="74"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="74"/>
+      <c r="R54" s="74"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="74"/>
       <c r="B55" s="74"/>
       <c r="C55" s="74"/>
@@ -10236,8 +10348,10 @@
       <c r="N55" s="74"/>
       <c r="O55" s="74"/>
       <c r="P55" s="74"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="74"/>
+      <c r="R55" s="74"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="74"/>
       <c r="B56" s="74"/>
       <c r="C56" s="74"/>
@@ -10254,8 +10368,10 @@
       <c r="N56" s="74"/>
       <c r="O56" s="74"/>
       <c r="P56" s="74"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="74"/>
+      <c r="R56" s="74"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="74"/>
       <c r="B57" s="74"/>
       <c r="C57" s="74"/>
@@ -10272,8 +10388,10 @@
       <c r="N57" s="74"/>
       <c r="O57" s="74"/>
       <c r="P57" s="74"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="74"/>
+      <c r="R57" s="74"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="74"/>
       <c r="B58" s="74"/>
       <c r="C58" s="74"/>
@@ -10290,8 +10408,10 @@
       <c r="N58" s="74"/>
       <c r="O58" s="74"/>
       <c r="P58" s="74"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="74"/>
+      <c r="R58" s="74"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="74"/>
       <c r="B59" s="74"/>
       <c r="C59" s="74"/>
@@ -10308,8 +10428,10 @@
       <c r="N59" s="74"/>
       <c r="O59" s="74"/>
       <c r="P59" s="74"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="74"/>
+      <c r="R59" s="74"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="74"/>
       <c r="B60" s="74"/>
       <c r="C60" s="74"/>
@@ -10326,8 +10448,10 @@
       <c r="N60" s="74"/>
       <c r="O60" s="74"/>
       <c r="P60" s="74"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="74"/>
+      <c r="R60" s="74"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="74"/>
       <c r="B61" s="74"/>
       <c r="C61" s="74"/>
@@ -10344,16 +10468,20 @@
       <c r="N61" s="74"/>
       <c r="O61" s="74"/>
       <c r="P61" s="74"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="74"/>
+      <c r="R61" s="74"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="O62" s="46"/>
       <c r="P62" s="46"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="46"/>
+      <c r="R62" s="46"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="O63" s="46"/>
       <c r="P63" s="46"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="O64" s="46"/>
       <c r="P64" s="46"/>
     </row>
@@ -10543,7 +10671,6 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:E30"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -10551,11 +10678,12 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A22:E28"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:GLBE/explorer/revenue_proj" xr:uid="{D6844C10-3916-6343-AF0F-1635EC964601}"/>
+    <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:MNDY/explorer/revenue_proj" xr:uid="{D6844C10-3916-6343-AF0F-1635EC964601}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Technology/Software/Monday.com.xlsx
+++ b/Technology/Software/Monday.com.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00F3CB1-62F5-9A48-82BD-389428C375FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CAC43B-B82E-C449-AD65-16DB4618894A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1736,6 +1736,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1755,7 +1757,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1768,6 +1770,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1895,10 +1899,10 @@
     <v>Powered by Refinitiv</v>
     <v>189.15</v>
     <v>94.76</v>
-    <v>-3.47</v>
-    <v>-1.9295E-2</v>
-    <v>3.37</v>
-    <v>1.9108E-2</v>
+    <v>0.95</v>
+    <v>5.457E-3</v>
+    <v>-0.13</v>
+    <v>-7.427E-4</v>
     <v>USD</v>
     <v>Monday.Com Ltd is an Israel-based software publisher. The Company provides operational system monday.com Work OS which is an open platform that democratizes the power of software so organizations can easily build software applications and work management tools to fit their every need. The platform intuitively connects people to processes and systems, empowering teams to excel in every aspect of their work. monday.com has teams in Tel Aviv, New York, San Francisco, Miami, Chicago, London, Kiev, and Sydney. The Company customize its platform to suit any business vertical and serves customers worldwide.</v>
     <v>1549</v>
@@ -1906,24 +1910,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>6 Yitzhak Sadeh Street, TEL AVIV-YAFO, 677750 IL</v>
-    <v>179.48</v>
+    <v>176.75</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.025273414059</v>
+    <v>45269.006014895313</v>
     <v>0</v>
-    <v>174</v>
-    <v>8514702000</v>
+    <v>173.5</v>
+    <v>8450010825</v>
     <v>MONDAY.COM LTD</v>
     <v>MONDAY.COM LTD</v>
-    <v>176.8</v>
-    <v>179.84</v>
-    <v>176.37</v>
-    <v>179.74</v>
+    <v>173.85</v>
+    <v>174.08</v>
+    <v>175.03</v>
+    <v>174.9</v>
     <v>48277500</v>
     <v>MNDY</v>
     <v>MONDAY.COM LTD (XNAS:MNDY)</v>
-    <v>1183834</v>
-    <v>1111109</v>
+    <v>535601</v>
+    <v>1221806</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -8807,7 +8811,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>8514702000</v>
+        <v>8450010825</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>192</v>
@@ -8827,15 +8831,15 @@
         <v>194</v>
       </c>
       <c r="G3" s="41">
-        <f>AVERAGE(Financials!E129:J129)</f>
-        <v>1.234623190732694E-2</v>
+        <f>AVERAGE(Financials!D129:J129)</f>
+        <v>1.4503181853365188E-2</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>195</v>
       </c>
       <c r="I3" s="42">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>7576526271.2338247</v>
+        <v>7525719077.6110792</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>196</v>
@@ -8880,21 +8884,21 @@
       </c>
       <c r="G4" s="51">
         <f>A5*(1+(5*G3))</f>
-        <v>51257726.054529883</v>
+        <v>51778386.809629187</v>
       </c>
       <c r="H4" s="50" t="s">
         <v>202</v>
       </c>
       <c r="I4" s="52">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>5718019263.0528975</v>
+        <v>5674018857.7567396</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>203</v>
       </c>
       <c r="K4" s="53" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.9295E-2</v>
+        <v>5.457E-3</v>
       </c>
       <c r="L4" s="54" t="s">
         <v>204</v>
@@ -8939,14 +8943,14 @@
       </c>
       <c r="I5" s="52">
         <f>I4+G5-G6</f>
-        <v>6638048263.0528975</v>
+        <v>6594047857.7567396</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>210</v>
       </c>
       <c r="K5" s="56" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>176.37</v>
+        <v>175.03</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>211</v>
@@ -8966,7 +8970,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="60">
         <f>O20/F10</f>
-        <v>11.89204189944134</v>
+        <v>11.801691096368716</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>213</v>
@@ -8994,14 +8998,14 @@
       </c>
       <c r="I6" s="53">
         <f>N25</f>
-        <v>9.6837010856344038E-2</v>
+        <v>9.732199267432283E-2</v>
       </c>
       <c r="J6" s="50" t="s">
         <v>216</v>
       </c>
       <c r="K6" s="61">
         <f>I5/G4</f>
-        <v>129.50337000886645</v>
+        <v>127.35135766204384</v>
       </c>
       <c r="L6" s="62" t="s">
         <v>217</v>
@@ -9021,14 +9025,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="63">
         <f>O20/F12</f>
-        <v>177.389625</v>
+        <v>176.0418921875</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>219</v>
       </c>
       <c r="C7" s="65">
         <f>F15/A3</f>
-        <v>1.2918831451764255E-2</v>
+        <v>1.301773480272435E-2</v>
       </c>
       <c r="D7" s="64" t="s">
         <v>220</v>
@@ -9055,7 +9059,7 @@
       </c>
       <c r="K7" s="71">
         <f>K6/K5-1</f>
-        <v>-0.26572903549999172</v>
+        <v>-0.27240268718480354</v>
       </c>
       <c r="L7" s="72" t="s">
         <v>223</v>
@@ -9382,7 +9386,7 @@
       </c>
       <c r="O14" s="91">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="46"/>
       <c r="Q14" s="46"/>
@@ -9534,7 +9538,7 @@
       </c>
       <c r="O17" s="100">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="46"/>
       <c r="Q17" s="46"/>
@@ -9617,7 +9621,7 @@
       </c>
       <c r="O20" s="106">
         <f>A3</f>
-        <v>8514702000</v>
+        <v>8450010825</v>
       </c>
       <c r="P20" s="46"/>
       <c r="Q20" s="46"/>
@@ -9647,7 +9651,7 @@
       </c>
       <c r="O21" s="106">
         <f>O19+O20</f>
-        <v>8584050000</v>
+        <v>8519358825</v>
       </c>
       <c r="P21" s="46"/>
       <c r="Q21" s="46"/>
@@ -9675,7 +9679,7 @@
       </c>
       <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>8.0787041082006749E-3</v>
+        <v>8.140049201413934E-3</v>
       </c>
       <c r="P22" s="46"/>
       <c r="Q22" s="46"/>
@@ -9700,7 +9704,7 @@
       </c>
       <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.99192129589179934</v>
+        <v>0.99185995079858602</v>
       </c>
       <c r="P23" s="46"/>
       <c r="Q23" s="46"/>
@@ -9744,7 +9748,7 @@
       <c r="M25" s="74"/>
       <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.6837010856344038E-2</v>
+        <v>9.732199267432283E-2</v>
       </c>
       <c r="O25" s="115"/>
       <c r="P25" s="46"/>
